--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Certificates-Generator\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503E5ADC-02F5-427E-A069-059DE19EBA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA65C1B0-5148-4B42-B431-71D9A083E45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EBCA85D4-4113-48AD-B128-FA3623C8DA5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>alkadyfacebook2019@gmail.com</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
@@ -112,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -120,6 +123,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -139,12 +143,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91B6C5D2-9775-49AC-A51B-95C9BBFB60F3}" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{91B6C5D2-9775-49AC-A51B-95C9BBFB60F3}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91B6C5D2-9775-49AC-A51B-95C9BBFB60F3}" name="Table1" displayName="Table1" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3" xr:uid="{91B6C5D2-9775-49AC-A51B-95C9BBFB60F3}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E40B50DE-9C90-4A98-8A82-C4CEFBD4E3B4}" name="Name"/>
     <tableColumn id="6" xr3:uid="{CACBB457-0996-4779-AB5F-94D12AAF5036}" name="Title"/>
     <tableColumn id="3" xr3:uid="{E72FE165-B709-488F-8788-9A5CB5227A02}" name="Email"/>
+    <tableColumn id="2" xr3:uid="{1ADAD2B5-5D16-4AC3-947B-E4E34CE47A60}" name="Phone"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -467,19 +472,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E749FC2-971B-4755-BC9A-5067F2430965}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +495,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -500,8 +509,11 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="3">
+        <v>201069683986</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
